--- a/scripts/Final2.xlsx
+++ b/scripts/Final2.xlsx
@@ -2,28 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\app-trader-sql-corduroy-commandos\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6D25E8-2938-44E6-954E-341551BE9249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{405FABFA-EB09-4BCC-AF77-B5DC37C4F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="10485" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-10410" yWindow="15240" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Final2.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="TOP_10_APP" sheetId="2" r:id="rId1"/>
+    <sheet name="Final2.xlsx" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
-  <si>
-    <t>app_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>purchase_price</t>
   </si>
@@ -122,6 +123,21 @@
   </si>
   <si>
     <t>Puzzle</t>
+  </si>
+  <si>
+    <t>APP_Name</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of average_rating</t>
   </si>
 </sst>
 </file>
@@ -608,9 +624,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -656,7 +677,20 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -667,6 +701,1703 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Final2.xlsx]TOP_10_APP!PivotTable1</c:name>
+    <c:fmtId val="14"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>	TOP 10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> APP_NAME</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOP_10_APP!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$1,190,100.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TOP_10_APP!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CYTUS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DOMINO'S PIZZA USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EGG, INC.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GEOMETRY DASH LITE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HITMAN SNIPER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PEWDIEPIE'S TUBER SIMULATOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SUGAR, SUGAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>THE EO BAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>THE GUARDIAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOP_10_APP!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AD8-483F-AC50-CA7BE23ED840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOP_10_APP!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$1,250,100.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TOP_10_APP!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CYTUS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DOMINO'S PIZZA USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EGG, INC.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GEOMETRY DASH LITE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HITMAN SNIPER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PEWDIEPIE'S TUBER SIMULATOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SUGAR, SUGAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>THE EO BAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>THE GUARDIAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOP_10_APP!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AD8-483F-AC50-CA7BE23ED840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOP_10_APP!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$1,310,000.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TOP_10_APP!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CYTUS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DOMINO'S PIZZA USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EGG, INC.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GEOMETRY DASH LITE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HITMAN SNIPER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PEWDIEPIE'S TUBER SIMULATOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SUGAR, SUGAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>THE EO BAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>THE GUARDIAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOP_10_APP!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AD8-483F-AC50-CA7BE23ED840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1880604591"/>
+        <c:axId val="1870443503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1880604591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870443503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1870443503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880604591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1819276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DAA4AB-FD43-B9A5-7D05-667B0AE3D519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dell" refreshedDate="45220.518560185184" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L11" sheet="Final2.xlsx"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="APP_Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="ASOS"/>
+        <s v="CYTUS"/>
+        <s v="DOMINO'S PIZZA USA"/>
+        <s v="EGG, INC."/>
+        <s v="GEOMETRY DASH LITE"/>
+        <s v="PEWDIEPIE'S TUBER SIMULATOR"/>
+        <s v="THE GUARDIAN"/>
+        <s v="THE EO BAR"/>
+        <s v="HITMAN SNIPER"/>
+        <s v="SUGAR, SUGAR"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="purchase_price" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9900" maxValue="69900"/>
+    </cacheField>
+    <cacheField name="total_revenue" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1200000" maxValue="1320000"/>
+    </cacheField>
+    <cacheField name="app_price" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.99"/>
+    </cacheField>
+    <cacheField name="monthly_earnings" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="a_genre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="p_genre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="average_rating" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="half_points" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="9"/>
+    </cacheField>
+    <cacheField name="net_profit" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1190100" maxValue="1310000" count="3">
+        <n v="1310000"/>
+        <n v="1250100"/>
+        <n v="1190100"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="projected_lifespan_years" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="11"/>
+    </cacheField>
+    <cacheField name="play_review_count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="139" maxValue="370370"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Shopping"/>
+    <s v="Shopping"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="9725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Music"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="7925"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Food &amp; Drink"/>
+    <s v="Food &amp; Drink"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="258624"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Simulation"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="79074"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Arcade"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="370370"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Casual"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="90851"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="1320000"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="News"/>
+    <s v="News &amp; Magazines"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="8176"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="69900"/>
+    <n v="1320000"/>
+    <n v="6.99"/>
+    <n v="10000"/>
+    <s v="Health &amp; Fitness"/>
+    <s v="Health &amp; Fitness"/>
+    <n v="5"/>
+    <n v="9"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9900"/>
+    <n v="1200000"/>
+    <n v="0.99"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Action"/>
+    <n v="5"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="8452"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9900"/>
+    <n v="1200000"/>
+    <n v="0.99"/>
+    <n v="10000"/>
+    <s v="Games"/>
+    <s v="Puzzle"/>
+    <n v="4"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="139"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A3:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" numFmtId="8" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of average_rating" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0">
+  <autoFilter ref="A1:L11"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="APP_Name"/>
+    <tableColumn id="2" name="purchase_price" dataDxfId="3"/>
+    <tableColumn id="3" name="total_revenue" dataDxfId="2"/>
+    <tableColumn id="4" name="app_price" dataDxfId="1"/>
+    <tableColumn id="5" name="monthly_earnings"/>
+    <tableColumn id="6" name="a_genre"/>
+    <tableColumn id="7" name="p_genre"/>
+    <tableColumn id="8" name="average_rating"/>
+    <tableColumn id="9" name="half_points"/>
+    <tableColumn id="10" name="net_profit" dataDxfId="0"/>
+    <tableColumn id="11" name="projected_lifespan_years"/>
+    <tableColumn id="12" name="play_review_count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,53 +2697,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1190100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1250100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1310000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -1027,10 +2972,10 @@
         <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1050,7 +2995,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -1065,10 +3010,10 @@
         <v>10000</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1088,7 +3033,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
@@ -1103,10 +3048,10 @@
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1126,7 +3071,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
@@ -1141,10 +3086,10 @@
         <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1164,7 +3109,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -1179,10 +3124,10 @@
         <v>10000</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1202,7 +3147,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -1217,10 +3162,10 @@
         <v>10000</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1240,7 +3185,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -1255,10 +3200,10 @@
         <v>10000</v>
       </c>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1278,7 +3223,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>69900</v>
@@ -1293,10 +3238,10 @@
         <v>10000</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1316,7 +3261,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>9900</v>
@@ -1331,10 +3276,10 @@
         <v>10000</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1354,7 +3299,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>9900</v>
@@ -1369,10 +3314,10 @@
         <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1392,5 +3337,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>